--- a/iko_cube_prospective/comments.xlsx
+++ b/iko_cube_prospective/comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jettcrowdis/Documents/Miscellaneous/magic/github/tireless-tracker/iko_cube_prospective/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C8865-1ED4-894C-99F4-4068DED940E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974AB482-B753-A040-AE62-65403479E45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{632357E9-C90A-BC45-908D-681654CC242A}"/>
   </bookViews>
@@ -926,7 +926,7 @@
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
